--- a/BGG Best Games for Player Count.xlsx
+++ b/BGG Best Games for Player Count.xlsx
@@ -34,7 +34,7 @@
     <t>weight</t>
   </si>
   <si>
-    <t>Sort all regardles of playability:</t>
+    <t>Sort all regardless of playability:</t>
   </si>
   <si>
     <t>Game Name</t>
@@ -600,7 +600,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.13"/>
+    <col customWidth="1" min="1" max="1" width="39.63"/>
     <col customWidth="1" min="2" max="2" width="4.88"/>
     <col customWidth="1" min="3" max="3" width="3.38"/>
     <col customWidth="1" min="4" max="4" width="8.0"/>
@@ -3143,18 +3143,48 @@
       <formula>AND(E7&gt;3, E7&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="expression" dxfId="0" priority="257" stopIfTrue="1">
+      <formula>AND(E7&gt;=1, E7&lt;=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="expression" dxfId="1" priority="258" stopIfTrue="1">
+      <formula>AND(E7&gt;2, E7&lt;=3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="expression" dxfId="2" priority="259" stopIfTrue="1">
+      <formula>AND(E7&gt;3, E7&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="expression" dxfId="0" priority="260" stopIfTrue="1">
+      <formula>AND(E7&gt;=1, E7&lt;=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="expression" dxfId="1" priority="261" stopIfTrue="1">
+      <formula>AND(E7&gt;2, E7&lt;=3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E10">
+    <cfRule type="expression" dxfId="2" priority="262" stopIfTrue="1">
+      <formula>AND(E7&gt;3, E7&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E7:E114">
-    <cfRule type="expression" dxfId="0" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="263" stopIfTrue="1">
       <formula>AND(E7&gt;=1, E7&lt;=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E114">
-    <cfRule type="expression" dxfId="1" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="264" stopIfTrue="1">
       <formula>AND(E7&gt;2, E7&lt;=3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E114">
-    <cfRule type="expression" dxfId="2" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="265" stopIfTrue="1">
       <formula>AND(E7&gt;3, E7&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
